--- a/report_template/all_calibration_monthly.xlsx
+++ b/report_template/all_calibration_monthly.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\AQM\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\EPA\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="23">
   <si>
     <t>校正月報表</t>
   </si>
@@ -307,7 +307,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -478,7 +477,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -515,7 +513,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -529,7 +526,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -571,7 +567,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -742,7 +737,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -779,7 +773,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -793,7 +786,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -835,7 +827,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1006,7 +997,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1043,7 +1033,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -1057,7 +1046,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1099,7 +1087,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1218,7 +1205,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1255,7 +1241,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -1269,7 +1254,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1311,7 +1295,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1482,7 +1465,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1519,7 +1501,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -1533,7 +1514,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1575,7 +1555,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1746,7 +1725,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1783,7 +1761,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -1797,7 +1774,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1839,7 +1815,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1958,7 +1933,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1995,7 +1969,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -2009,7 +1982,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2051,7 +2023,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2222,7 +2193,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -2259,7 +2229,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -2273,7 +2242,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2315,7 +2283,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2486,7 +2453,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -2523,7 +2489,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -2537,7 +2502,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2579,7 +2543,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2698,7 +2661,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -2735,7 +2697,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -2749,7 +2710,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2791,7 +2751,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2962,7 +2921,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -2999,7 +2957,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -3013,7 +2970,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3055,7 +3011,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3226,7 +3181,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -3263,7 +3217,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -3277,7 +3230,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3319,7 +3271,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3490,7 +3441,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -3527,7 +3477,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -3541,7 +3490,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3583,7 +3531,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3702,7 +3649,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -3739,7 +3685,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -3753,7 +3698,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3795,7 +3739,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3966,7 +3909,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -4003,7 +3945,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -4017,7 +3958,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4059,7 +3999,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4230,7 +4169,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -4267,7 +4205,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -4281,7 +4218,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4323,7 +4259,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4442,7 +4377,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -4479,7 +4413,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -4493,7 +4426,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4535,7 +4467,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4706,7 +4637,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -4743,7 +4673,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -4757,7 +4686,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4799,7 +4727,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4970,7 +4897,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -5007,7 +4933,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -5021,7 +4946,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5063,7 +4987,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5182,7 +5105,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -5219,7 +5141,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -5233,7 +5154,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5275,7 +5195,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5446,7 +5365,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -5483,7 +5401,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -5497,7 +5414,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5539,7 +5455,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5710,7 +5625,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -5747,7 +5661,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -5761,7 +5674,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5803,7 +5715,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5922,7 +5833,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -5959,7 +5869,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -5973,7 +5882,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6015,7 +5923,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -6134,7 +6041,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -6171,7 +6077,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -6185,7 +6090,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6227,7 +6131,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -6398,7 +6301,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -6435,7 +6337,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -6449,7 +6350,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6491,7 +6391,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -6662,7 +6561,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -6699,7 +6597,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -6713,7 +6610,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6755,7 +6651,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -6874,7 +6769,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -6911,7 +6805,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -6925,7 +6818,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6967,7 +6859,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7138,7 +7029,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -7175,7 +7065,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -7189,7 +7078,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7231,7 +7119,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7402,7 +7289,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -7439,7 +7325,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -7453,7 +7338,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7495,7 +7379,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7614,7 +7497,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -7651,7 +7533,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -7665,7 +7546,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7707,7 +7587,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7878,7 +7757,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -7915,7 +7793,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -7929,7 +7806,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7971,7 +7847,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -8142,7 +8017,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -8179,7 +8053,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -8193,7 +8066,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8235,7 +8107,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -8354,7 +8225,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -8391,7 +8261,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -8405,7 +8274,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8447,7 +8315,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -8618,7 +8485,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -8655,7 +8521,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -8669,7 +8534,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8711,7 +8575,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -8882,7 +8745,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -8919,7 +8781,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -8933,7 +8794,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8975,7 +8835,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -9146,7 +9005,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -9183,7 +9041,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -9197,7 +9054,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9239,7 +9095,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -9358,7 +9213,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -9395,7 +9249,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -9409,7 +9262,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9451,7 +9303,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -9622,7 +9473,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -9659,7 +9509,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -9673,7 +9522,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9715,7 +9563,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -9886,7 +9733,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -9923,7 +9769,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -9937,7 +9782,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9979,7 +9823,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -10098,7 +9941,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -10135,7 +9977,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -10149,7 +9990,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10191,7 +10031,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -10362,7 +10201,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -10399,7 +10237,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -10413,7 +10250,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10455,7 +10291,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -10626,7 +10461,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -10663,7 +10497,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -10677,7 +10510,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10719,7 +10551,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -10838,7 +10669,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -10875,7 +10705,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -10889,7 +10718,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10931,7 +10759,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -11102,7 +10929,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -11139,7 +10965,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -11153,7 +10978,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11195,7 +11019,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -11314,7 +11137,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -11351,7 +11173,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -11365,7 +11186,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11407,7 +11227,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -11578,7 +11397,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -11615,7 +11433,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -11629,7 +11446,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11671,7 +11487,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -11842,7 +11657,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -11879,7 +11693,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -11893,7 +11706,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11935,7 +11747,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -12054,7 +11865,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -12091,7 +11901,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -12105,7 +11914,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12137,7 +11945,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12167,7 +11981,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12197,7 +12017,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12234,7 +12060,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12266,7 +12098,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12298,7 +12136,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12335,7 +12179,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12367,7 +12217,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12399,7 +12255,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12436,7 +12298,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12468,7 +12336,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12500,7 +12374,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12537,7 +12417,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12569,7 +12455,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12601,7 +12493,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12638,7 +12536,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12670,7 +12574,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12702,7 +12612,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12739,7 +12655,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12771,7 +12693,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12803,7 +12731,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12840,7 +12774,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12872,7 +12812,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12904,7 +12850,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12941,7 +12893,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12973,7 +12931,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13005,7 +12969,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13042,7 +13012,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13074,7 +13050,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13106,7 +13088,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13143,7 +13131,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13175,7 +13169,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13207,7 +13207,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13244,7 +13250,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13276,7 +13288,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13308,7 +13326,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13345,7 +13369,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13377,7 +13407,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13409,7 +13445,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13446,7 +13488,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13478,7 +13526,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13510,7 +13564,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13547,7 +13607,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13579,7 +13645,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13611,7 +13683,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13648,7 +13726,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13680,7 +13764,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13712,7 +13802,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13808,6 +13904,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -13843,6 +13956,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -18796,7 +18926,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -18822,9 +18952,7 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
